--- a/vertx-pin/zero-lbs/src/main/resources/plugin/lbs/oob/cab/lbs.tent.xlsx
+++ b/vertx-pin/zero-lbs/src/main/resources/plugin/lbs/oob/cab/lbs.tent.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-lbs/src/main/resources/plugin/lbs/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF441F4-70E4-1E48-8085-23D6190175F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEC4E25-41E0-AE42-ACCA-4CBE101A5DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -452,9 +454,6 @@
     <t>lbs.tent</t>
   </si>
   <si>
-    <t>resource.ambient</t>
-  </si>
-  <si>
     <t>63bf043e-5428-432b-9ec5-b80dc16d82c0</t>
   </si>
   <si>
@@ -643,6 +642,10 @@
   <si>
     <t>perm.tent.imp.exp</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource.lbs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -917,6 +920,22 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -929,28 +948,12 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1295,8 +1298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD17"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49:F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1318,129 +1321,129 @@
     <row r="1" spans="1:7">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:7" s="30" customFormat="1">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:7" s="24" customFormat="1">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+    </row>
+    <row r="3" spans="1:7" s="24" customFormat="1">
+      <c r="A3" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-    </row>
-    <row r="3" spans="1:7" s="30" customFormat="1">
-      <c r="A3" s="31" t="s">
+      <c r="B3" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="C3" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="D3" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="D3" s="31" t="s">
+    </row>
+    <row r="4" spans="1:7" s="24" customFormat="1">
+      <c r="A4" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" s="30" customFormat="1">
-      <c r="A4" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="32" t="s">
+      <c r="C4" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="D4" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="D4" s="32" t="s">
+    </row>
+    <row r="5" spans="1:7" s="24" customFormat="1">
+      <c r="A5" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="28" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="30" customFormat="1">
-      <c r="A5" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="B5" s="14" t="s">
+    <row r="6" spans="1:7" s="24" customFormat="1">
+      <c r="A6" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="30" customFormat="1">
-      <c r="A6" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="B6" s="14" t="s">
+      <c r="D6" s="28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="24" customFormat="1">
+      <c r="A7" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="C6" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="30" customFormat="1">
-      <c r="A7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="C7" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="24" customFormat="1">
+      <c r="A8" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="C7" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="30" customFormat="1">
-      <c r="A8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="C8" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="24" customFormat="1">
+      <c r="A9" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="C8" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="30" customFormat="1">
-      <c r="A9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="C9" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="24" customFormat="1">
+      <c r="A10" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="C9" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="30" customFormat="1">
-      <c r="A10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>183</v>
+      <c r="C10" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1453,11 +1456,11 @@
       <c r="B13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
@@ -1501,7 +1504,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>63</v>
@@ -1520,7 +1523,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>65</v>
@@ -1539,7 +1542,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>67</v>
@@ -1558,7 +1561,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>69</v>
@@ -1577,7 +1580,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>70</v>
@@ -1596,7 +1599,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>72</v>
@@ -1620,15 +1623,15 @@
       <c r="B26" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="8" t="s">
@@ -1690,7 +1693,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B29" s="18" t="str">
         <f t="shared" ref="B29:B43" si="0">A49</f>
@@ -1719,7 +1722,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B30" s="18" t="str">
         <f t="shared" si="0"/>
@@ -1748,7 +1751,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B31" s="18" t="str">
         <f t="shared" si="0"/>
@@ -1777,7 +1780,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B32" s="18" t="str">
         <f t="shared" si="0"/>
@@ -1806,7 +1809,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B33" s="18" t="str">
         <f t="shared" si="0"/>
@@ -1835,7 +1838,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B34" s="18" t="str">
         <f t="shared" si="0"/>
@@ -1864,7 +1867,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B35" s="18" t="str">
         <f t="shared" si="0"/>
@@ -1893,7 +1896,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B36" s="18" t="str">
         <f t="shared" si="0"/>
@@ -1922,7 +1925,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B37" s="18" t="str">
         <f t="shared" si="0"/>
@@ -1951,7 +1954,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B38" s="18" t="str">
         <f t="shared" si="0"/>
@@ -1980,7 +1983,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B39" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2009,7 +2012,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B40" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2038,7 +2041,7 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B41" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2067,7 +2070,7 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B42" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2096,7 +2099,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B43" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2148,15 +2151,15 @@
       <c r="B46" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="C46" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="8" t="s">
@@ -2218,7 +2221,7 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>74</v>
@@ -2233,7 +2236,7 @@
         <v>137</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="G49" s="15">
         <v>1</v>
@@ -2243,7 +2246,7 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>75</v>
@@ -2258,7 +2261,7 @@
         <v>137</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="G50" s="15">
         <v>4</v>
@@ -2268,7 +2271,7 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B51" s="15" t="s">
         <v>76</v>
@@ -2283,7 +2286,7 @@
         <v>137</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="G51" s="15">
         <v>8</v>
@@ -2293,7 +2296,7 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>77</v>
@@ -2308,7 +2311,7 @@
         <v>137</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="G52" s="15">
         <v>12</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B53" s="15" t="s">
         <v>78</v>
@@ -2333,7 +2336,7 @@
         <v>137</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="G53" s="15">
         <v>1</v>
@@ -2343,7 +2346,7 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>79</v>
@@ -2358,7 +2361,7 @@
         <v>137</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="G54" s="15">
         <v>8</v>
@@ -2368,7 +2371,7 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B55" s="15" t="s">
         <v>80</v>
@@ -2383,7 +2386,7 @@
         <v>137</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="G55" s="15">
         <v>12</v>
@@ -2393,7 +2396,7 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B56" s="15" t="s">
         <v>81</v>
@@ -2408,7 +2411,7 @@
         <v>137</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="G56" s="15">
         <v>3</v>
@@ -2418,7 +2421,7 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B57" s="15" t="s">
         <v>82</v>
@@ -2433,7 +2436,7 @@
         <v>137</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="G57" s="15">
         <v>3</v>
@@ -2443,7 +2446,7 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B58" s="15" t="s">
         <v>83</v>
@@ -2458,7 +2461,7 @@
         <v>137</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="G58" s="15">
         <v>11</v>
@@ -2468,7 +2471,7 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B59" s="15" t="s">
         <v>84</v>
@@ -2483,7 +2486,7 @@
         <v>137</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="G59" s="15">
         <v>5</v>
@@ -2493,7 +2496,7 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B60" s="15" t="s">
         <v>85</v>
@@ -2508,7 +2511,7 @@
         <v>137</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="G60" s="15">
         <v>3</v>
@@ -2518,7 +2521,7 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B61" s="15" t="s">
         <v>86</v>
@@ -2533,7 +2536,7 @@
         <v>137</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="G61" s="15">
         <v>1</v>
@@ -2543,7 +2546,7 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B62" s="15" t="s">
         <v>87</v>
@@ -2558,7 +2561,7 @@
         <v>137</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="G62" s="15">
         <v>1</v>
@@ -2568,7 +2571,7 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B63" s="15" t="s">
         <v>88</v>
@@ -2583,7 +2586,7 @@
         <v>137</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="G63" s="15">
         <v>1</v>
